--- a/files/templates/CLASS 1-4 SEA-2.xlsx
+++ b/files/templates/CLASS 1-4 SEA-2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>GYAN GANGA INTERNATIONAL SCHOOL</t>
   </si>
@@ -43,7 +43,10 @@
     <t>Total</t>
   </si>
   <si>
-    <t>CLASS 1 (2017-18)</t>
+    <t>MAXIMUM MARKS</t>
+  </si>
+  <si>
+    <t>CLASS 1 (2017)</t>
   </si>
   <si>
     <t>SUBJECT ENRICHMENT-2 (SEA-2)</t>
@@ -53,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,13 +88,39 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Adobe Heiti Std R"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -296,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -319,42 +348,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -363,6 +399,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -658,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,106 +717,100 @@
     <col min="8" max="8" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-    </row>
-    <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-    </row>
-    <row r="3" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+    </row>
+    <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="6"/>
@@ -786,18 +821,28 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="10"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="14">
+        <v>20</v>
+      </c>
+      <c r="D7" s="14">
+        <v>10</v>
+      </c>
+      <c r="E7" s="14">
+        <v>10</v>
+      </c>
+      <c r="F7" s="14">
+        <v>10</v>
+      </c>
+      <c r="G7" s="14">
+        <v>20</v>
+      </c>
+      <c r="H7" s="24"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -806,18 +851,16 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="8"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -826,10 +869,8 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -837,7 +878,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="8"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -846,10 +887,8 @@
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -857,7 +896,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="8"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -866,10 +905,8 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -877,7 +914,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="8"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -886,10 +923,8 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -897,7 +932,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -906,10 +941,8 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -917,7 +950,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="8"/>
+      <c r="H13" s="19"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -926,10 +959,8 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -937,7 +968,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="8"/>
+      <c r="H14" s="19"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -946,10 +977,8 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -957,7 +986,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="8"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -966,10 +995,8 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -977,7 +1004,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -986,10 +1013,8 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -997,7 +1022,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -1006,10 +1031,8 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1017,7 +1040,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="8"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -1026,10 +1049,8 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1037,7 +1058,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="8"/>
+      <c r="H19" s="19"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -1046,10 +1067,8 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1057,7 +1076,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="8"/>
+      <c r="H20" s="19"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -1066,10 +1085,8 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1077,7 +1094,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="8"/>
+      <c r="H21" s="19"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -1086,10 +1103,8 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1097,7 +1112,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="8"/>
+      <c r="H22" s="19"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
@@ -1106,18 +1121,16 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="20"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -1126,10 +1139,8 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1137,7 +1148,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="8"/>
+      <c r="H24" s="19"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1146,335 +1157,333 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="16"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="21"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="21"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="16"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="16"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="16"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="16"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="16"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="16"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="16"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="16"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="16"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="16"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="16"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="16"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="16"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="16"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="16"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="16"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="16"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="16"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="16"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="16"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="16"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="16"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="21"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="17"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A4:H4"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/files/templates/CLASS 1-4 SEA-2.xlsx
+++ b/files/templates/CLASS 1-4 SEA-2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>GYAN GANGA INTERNATIONAL SCHOOL</t>
   </si>
@@ -43,10 +43,13 @@
     <t>Total</t>
   </si>
   <si>
+    <t>CLASS 1 (2017-18)</t>
+  </si>
+  <si>
     <t>MAXIMUM MARKS</t>
   </si>
   <si>
-    <t>CLASS 1 (2017)</t>
+    <t>^</t>
   </si>
   <si>
     <t>SUBJECT ENRICHMENT-2 (SEA-2)</t>
@@ -97,7 +100,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,14 +119,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -242,49 +239,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -302,19 +256,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -325,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -349,15 +290,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -371,20 +311,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -699,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,19 +641,21 @@
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
@@ -736,18 +664,20 @@
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
-    </row>
-    <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+    </row>
+    <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -756,18 +686,20 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+    </row>
+    <row r="3" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -776,41 +708,43 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="6"/>
@@ -822,27 +756,32 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="14">
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="13">
         <v>20</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>10</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>10</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>10</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>20</v>
       </c>
-      <c r="H7" s="24"/>
+      <c r="H7" s="13">
+        <f>C7+D7+E7+F7+G7</f>
+        <v>70</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -852,7 +791,7 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -860,7 +799,10 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="23"/>
+      <c r="H8" s="13">
+        <f t="shared" ref="H8:H56" si="0">C8+D8+E8+F8+G8</f>
+        <v>0</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -870,7 +812,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -878,7 +820,10 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="19"/>
+      <c r="H9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -888,7 +833,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -896,7 +841,10 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="19"/>
+      <c r="H10" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -906,7 +854,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -914,7 +862,10 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="19"/>
+      <c r="H11" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -924,7 +875,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -932,7 +883,10 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="19"/>
+      <c r="H12" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -942,7 +896,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -950,7 +904,10 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="19"/>
+      <c r="H13" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -960,7 +917,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -968,7 +925,10 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="19"/>
+      <c r="H14" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -978,7 +938,7 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -986,7 +946,10 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="19"/>
+      <c r="H15" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -996,7 +959,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1004,7 +967,10 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="19"/>
+      <c r="H16" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -1014,7 +980,7 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1022,7 +988,10 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="19"/>
+      <c r="H17" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -1032,7 +1001,7 @@
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1040,7 +1009,10 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="19"/>
+      <c r="H18" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -1050,7 +1022,7 @@
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1058,7 +1030,10 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="19"/>
+      <c r="H19" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -1068,7 +1043,7 @@
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1076,7 +1051,10 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="19"/>
+      <c r="H20" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
@@ -1086,7 +1064,7 @@
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1094,7 +1072,10 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="19"/>
+      <c r="H21" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -1104,7 +1085,7 @@
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1112,7 +1093,10 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="19"/>
+      <c r="H22" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
@@ -1122,7 +1106,7 @@
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1130,7 +1114,10 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="20"/>
+      <c r="H23" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -1140,7 +1127,7 @@
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1148,7 +1135,10 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="19"/>
+      <c r="H24" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1158,7 +1148,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -1166,9 +1156,12 @@
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H25" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -1176,9 +1169,12 @@
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="21"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H26" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1186,9 +1182,12 @@
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="21"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H27" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1196,9 +1195,12 @@
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="21"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H28" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1206,9 +1208,12 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="21"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H29" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -1216,9 +1221,12 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="21"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H30" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1226,9 +1234,12 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="21"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H31" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1236,9 +1247,12 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="21"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1246,9 +1260,12 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1256,9 +1273,12 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="12"/>
-      <c r="H34" s="21"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -1266,9 +1286,12 @@
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="21"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -1276,9 +1299,12 @@
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="12"/>
-      <c r="H36" s="21"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -1286,9 +1312,12 @@
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="21"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -1296,9 +1325,12 @@
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="21"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -1306,9 +1338,12 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="12"/>
-      <c r="H39" s="21"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -1316,9 +1351,12 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="21"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -1326,9 +1364,12 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="21"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H41" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -1336,9 +1377,12 @@
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="21"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H42" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -1346,9 +1390,12 @@
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="12"/>
-      <c r="H43" s="21"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H43" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -1356,9 +1403,12 @@
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="12"/>
-      <c r="H44" s="21"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H44" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -1366,9 +1416,12 @@
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="12"/>
-      <c r="H45" s="21"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H45" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -1376,9 +1429,12 @@
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="12"/>
-      <c r="H46" s="21"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H46" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -1386,9 +1442,12 @@
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="12"/>
-      <c r="H47" s="21"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H47" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -1396,9 +1455,12 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="12"/>
-      <c r="H48" s="21"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H48" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -1406,9 +1468,12 @@
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="12"/>
-      <c r="H49" s="21"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H49" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -1416,9 +1481,12 @@
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="12"/>
-      <c r="H50" s="21"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H50" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -1426,9 +1494,12 @@
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="12"/>
-      <c r="H51" s="21"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -1436,9 +1507,12 @@
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="12"/>
-      <c r="H52" s="21"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H52" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -1446,9 +1520,12 @@
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="12"/>
-      <c r="H53" s="21"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H53" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -1456,9 +1533,12 @@
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="12"/>
-      <c r="H54" s="21"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H54" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -1466,7 +1546,10 @@
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="12"/>
-      <c r="H55" s="21"/>
+      <c r="H55" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
@@ -1476,7 +1559,10 @@
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="12"/>
-      <c r="H56" s="22"/>
+      <c r="H56" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/files/templates/CLASS 1-4 SEA-2.xlsx
+++ b/files/templates/CLASS 1-4 SEA-2.xlsx
@@ -627,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,7 +800,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
       <c r="H8" s="13">
-        <f t="shared" ref="H8:H56" si="0">C8+D8+E8+F8+G8</f>
+        <f>SUMIF(C8:G8,"&lt;&gt;#AB")</f>
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
@@ -821,7 +821,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="5"/>
       <c r="H9" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H9:H56" si="0">SUMIF(C9:G9,"&lt;&gt;#AB")</f>
         <v>0</v>
       </c>
       <c r="I9" s="7"/>
